--- a/my_work/data1/total.xlsx
+++ b/my_work/data1/total.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BF406A-E574-4CA9-A01E-3B98EB5D2FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16AE30-66DF-4E4C-B9C3-472ABDF0D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -71,6 +72,9 @@
   <si>
     <t>S3_mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperature_anomaly</t>
   </si>
 </sst>
 </file>
@@ -434,18 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK52"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,88 +473,91 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1966</v>
       </c>
@@ -569,315 +577,313 @@
         <v>11.435326086956531</v>
       </c>
       <c r="G2">
-        <f>AVERAGE(B2,L2,S2,Z2,AG2)</f>
-        <v>17.138689823874756</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(C2,M2,T2,AA2,AH2)</f>
-        <v>13.415444444444443</v>
+        <v>17.670965019569472</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="H2:K2" si="0">AVERAGE(D2,N2,U2,AB2,AI2)</f>
-        <v>19.987936507936507</v>
+        <v>14.155694444444443</v>
       </c>
       <c r="J2">
-        <f t="shared" si="0"/>
-        <v>20.345326086956526</v>
+        <v>20.506623931623931</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
-        <v>14.762173913043483</v>
+        <v>20.655027173913048</v>
       </c>
       <c r="L2">
+        <v>15.328532608695658</v>
+      </c>
+      <c r="M2">
         <v>15.009589041095889</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10.454444444444441</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>17.913186813186812</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>19.106521739130439</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>12.496739130434779</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1966</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>15.435479452054791</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>11.46833333333333</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>18.349450549450552</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>18.877717391304351</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>12.991847826086961</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1966</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>22.16630136986301</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>18.957777777777778</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>24.95054945054946</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>24.36304347826087</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>20.354347826086961</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1966</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>19.173150684931521</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>16.623333333333331</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>22.015384615384601</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>21.49673913043479</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>16.532608695652179</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1967</v>
+      </c>
       <c r="G3">
-        <f>AVERAGE(L3,Z3,AG3)</f>
         <v>18.061942045670577</v>
       </c>
       <c r="H3">
-        <f>AVERAGE(M3,AA3,AH3)</f>
+        <v>17.86645353262</v>
+      </c>
+      <c r="I3">
         <v>14.019020576131688</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="H3:K5" si="1">AVERAGE(N3,AB3,AI3)</f>
+      <c r="J3">
         <v>21.397725717505946</v>
       </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
+      <c r="K3">
         <v>22.430287530545439</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
+      <c r="L3">
         <v>15.286968985645736</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>14.542032967032959</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10.30727160493827</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17.1770679869581</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>19.81854914933837</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>11.419744386048739</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1967</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>21.488450704225361</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>18.256197530864199</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>24.57747856539067</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>25.159305408271472</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>19.28646030245746</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1967</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>18.15534246575341</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>13.49359259259259</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>22.438630600169059</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>22.31300803402646</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>15.154702268431009</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1968</v>
+      </c>
       <c r="G4">
-        <f>AVERAGE(L4,Z4,AG4)</f>
         <v>18.366977739557939</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <v>18.214459892614258</v>
+      </c>
+      <c r="I4">
         <v>13.743156523909841</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="J4">
         <v>21.036238744148417</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
+      <c r="K4">
         <v>22.458023198231231</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
+      <c r="L4">
         <v>16.419061257090348</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>15.12626865671643</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10.3517878600823</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17.082165582274261</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>19.766505969014549</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>12.303475482457049</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1968</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>21.735714285714291</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>17.847870302536961</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>24.69975251170758</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>25.4117700600919</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>20.00202674241801</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1968</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>18.238950276243092</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>13.029811409110261</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>21.326798138463399</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>22.195793565587248</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>16.951681546395989</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1969</v>
+      </c>
       <c r="G5">
-        <f>AVERAGE(L5,Z5,AG5)</f>
         <v>18.641963972100967</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <v>18.504470855829453</v>
+      </c>
+      <c r="I5">
         <v>14.762331368784187</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="J5">
         <v>22.552452854151493</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
+      <c r="K5">
         <v>22.240123440560485</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
+      <c r="L5">
         <v>15.775657180678769</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>14.929945054945071</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>9.9961309762231387</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>18.41091295091416</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>19.597462021402329</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>12.33047255959192</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1969</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>21.9206043956044</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>18.157198558917081</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>25.886810467161609</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>25.00556271804448</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>19.524198096070521</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1969</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>19.07534246575343</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>16.133664571212339</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>23.359635144378711</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>22.117345582234641</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>15.472300886373869</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1970</v>
       </c>
@@ -897,96 +903,96 @@
         <v>20.825383979206059</v>
       </c>
       <c r="G6">
-        <f>AVERAGE(B6,L6,S6,Z6,AG6)</f>
-        <v>16.770900701363075</v>
+        <v>17.210612178073706</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:K10" si="2">AVERAGE(C6,M6,T6,AA6,AH6)</f>
-        <v>16.433105471713656</v>
+        <v>17.926288075087335</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>29.337951473017618</v>
+        <v>18.025003698041452</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>28.917062169135583</v>
+        <f>AVERAGE(O6,AC6,AJ6)</f>
+        <v>21.703873108287382</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>18.52785563672348</v>
+        <f>AVERAGE(P6,AD6,AK6)</f>
+        <v>22.223327071432667</v>
       </c>
       <c r="L6">
+        <v>20.017888913948941</v>
+      </c>
+      <c r="M6">
         <v>15.01205479452055</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10.06551256640248</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>18.216603439021029</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>19.781494152406552</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>12.567722527821649</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1970</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14.92876712328766</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>20.651314814814821</v>
       </c>
-      <c r="U6">
-        <v>42.273070885158788</v>
-      </c>
       <c r="V6">
+        <v>42.273070885158802</v>
+      </c>
+      <c r="W6">
         <v>39.163344754253288</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>23.924911389414</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>1970</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>22.068732394366201</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>19.073968872876851</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>25.305349565573209</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>24.908950696867159</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>19.782430929715119</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1970</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>18.488493150684921</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>15.65592960634681</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>21.589666320267909</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>21.979536365024291</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>15.538829357460591</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1971</v>
       </c>
@@ -1006,96 +1012,94 @@
         <v>9.699188956295723</v>
       </c>
       <c r="G7">
-        <f>AVERAGE(B7,L7,S7,Z7,AG7)</f>
-        <v>16.229869938280899</v>
+        <v>16.626829181092884</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>11.996478949685709</v>
+        <v>16.918720679583295</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>20.099513255901787</v>
+        <v>12.507083374422685</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>20.683228936621042</v>
+        <v>20.683411890099705</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>13.106889441883354</v>
+        <v>20.995934284492591</v>
       </c>
       <c r="L7">
+        <v>13.388645531673363</v>
+      </c>
+      <c r="M7">
         <v>14.64203296703297</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9.954061250737805</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>17.763918719110119</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>19.43240754513484</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>11.97986508272332</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1971</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14.38082191780823</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>9.5966812757201652</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>18.629374405331411</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>19.52134070385058</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>11.08777077597189</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1971</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>21.103561643835619</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>17.804155209698632</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>24.661597247973329</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>24.585966855400731</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>18.29763511880126</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1971</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>17.720604395604401</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>13.775065884514969</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>21.9387740702252</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>21.517168873532881</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>14.469987275624581</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1972</v>
       </c>
@@ -1115,96 +1119,94 @@
         <v>11.605969445177131</v>
       </c>
       <c r="G8">
-        <f>AVERAGE(B8,L8,S8,Z8,AG8)</f>
-        <v>16.877759562841526</v>
+        <v>17.358401639344262</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>12.474027241205333</v>
+        <v>16.992615410218573</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>20.085379266548376</v>
+        <v>13.039913004114529</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>21.014056836267617</v>
+        <v>20.616438592198904</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>14.640727059150905</v>
+        <v>21.324276459614047</v>
       </c>
       <c r="L8">
+        <v>15.175963538387752</v>
+      </c>
+      <c r="M8">
         <v>14.955191256830579</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10.21048418956855</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>17.961141963946272</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19.773178342881909</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>12.499781142203521</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1972</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>14.988387978142089</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>10.14721627775516</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>18.117355762695951</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>19.6214276163462</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>12.68845403017361</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1972</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>22.088797814207641</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>18.018726980326349</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>25.49298458514258</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>25.57376050929782</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>20.19019168607392</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1972</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>18.43989071038251</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>14.508517207522139</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>22.047678835936541</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>21.759969226886231</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>16.21923899212635</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1973</v>
       </c>
@@ -1224,96 +1226,94 @@
         <v>10.51636923309975</v>
       </c>
       <c r="G9">
-        <f>AVERAGE(B9,L9,S9,Z9,AG9)</f>
-        <v>17.114911067346931</v>
+        <v>17.531721025964487</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>13.357139728531752</v>
+        <v>17.445061332654376</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>20.806652519412626</v>
+        <v>13.98361776013811</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>21.103848443872476</v>
+        <v>21.391664160353841</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>13.867181815860334</v>
+        <v>21.335318222387109</v>
       </c>
       <c r="L9">
+        <v>14.11278221237378</v>
+      </c>
+      <c r="M9">
         <v>15.44767123287671</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10.85122760210632</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>18.466605955647768</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>20.177969329813941</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>12.884780229806561</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1973</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>15.511019283746551</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>11.24542291224722</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>19.508981931458209</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>19.750776387134199</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>12.055309282936671</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1973</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>21.89065934065933</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>19.0518958087677</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>25.080142687748818</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>25.25514957075324</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>19.08793686615298</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>1973</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>18.818082191780832</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>16.095650191194689</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>23.154370097098209</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>22.028912708987889</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>14.79151346730572</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1974</v>
       </c>
@@ -1333,278 +1333,278 @@
         <v>16.005818461654989</v>
       </c>
       <c r="G10">
-        <f>AVERAGE(B10,L10,S10,Z10,AG10)</f>
-        <v>16.614637008116148</v>
+        <v>17.054323657405458</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>11.724968219205909</v>
+        <v>17.293022341684974</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>19.736259652218685</v>
+        <v>12.276901308445979</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>20.730782357968661</v>
+        <v>20.220691032428164</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>15.939032257214043</v>
+        <v>21.141526943847204</v>
       </c>
       <c r="L10">
+        <v>16.520299070893081</v>
+      </c>
+      <c r="M10">
         <v>14.85589041095891</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>9.5172358622456272</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>17.798534131380752</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>19.087804014454491</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>13.613965002497901</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1974</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>14.917582417582411</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>9.7888380323583046</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>17.943988688127309</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>19.186421482468852</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>13.38538379655366</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1974</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>21.003311258278138</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>17.24279884231964</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>24.670890474308329</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>26.06517165235844</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>20.405303661588611</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1974</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>18.185479452054789</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>13.624396113235489</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>21.74894912194614</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>21.850314268575961</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>16.284690363775059</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1975</v>
+      </c>
       <c r="G11">
-        <f>AVERAGE(L11,S11,Z11,AG11)</f>
-        <v>17.802544230125672</v>
+        <v>17.368801750235566</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:K12" si="3">AVERAGE(M11,T11,AA11,AH11)</f>
-        <v>14.572294196968858</v>
+        <v>17.211562703820512</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
-        <v>21.337169826248257</v>
+        <v>15.7156713458472</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>21.69105906283869</v>
+        <v>21.354276493389595</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
-        <v>14.227824301153301</v>
+        <v>20.069603223170379</v>
       </c>
       <c r="L11">
+        <v>12.687079852039226</v>
+      </c>
+      <c r="M11">
         <v>14.967671232876709</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>10.262413731802731</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>18.334049825619569</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>19.606389174070159</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>12.254499619592369</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1975</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>15.203453038674031</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>11.290324022835479</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>19.14773613942997</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>19.667071349805209</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>11.376471563006019</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1975</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>22.428915662650599</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>20.693945743090161</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>25.267454338603422</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>25.335881007168769</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>18.850057648495529</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1975</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>18.610136986301359</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>16.04249329014706</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>22.59943900134007</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>22.154894720310619</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>14.43026837351929</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1976</v>
+      </c>
       <c r="G12">
-        <f>AVERAGE(L12,S12,Z12,AG12)</f>
-        <v>17.155906962887308</v>
+        <v>15.963231463592802</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
-        <v>12.75483346727602</v>
+        <v>16.666016606914184</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
-        <v>20.611016304308393</v>
+        <v>14.879424763040207</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>21.572224242695938</v>
+        <v>20.555170925757338</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
-        <v>14.827574781317745</v>
+        <v>20.224980157482147</v>
       </c>
       <c r="L12">
+        <v>13.183686456074041</v>
+      </c>
+      <c r="M12">
         <v>14.56939890710383</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>9.7776089421077206</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>17.408066481600219</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>19.433765099718151</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12.29407064803905</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1976</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>14.642415730337079</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>10.027366198053141</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>18.101074023510218</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>19.47215940670495</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>12.14974425611963</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1976</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>21.643934426229521</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>16.873232429051502</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>25.37159761210825</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>25.148216097904019</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>19.75923975704886</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1976</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>17.7678787878788</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>14.341126299891719</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>21.563327100014892</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>22.234756366456619</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>15.10724446406344</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1977</v>
       </c>
@@ -1624,96 +1624,98 @@
         <v>20.332128461539732</v>
       </c>
       <c r="G13">
-        <f>AVERAGE(B13,L13,S13,Z13,AG13)</f>
-        <v>16.662151068593779</v>
+        <v>17.172483356290172</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:K28" si="4">AVERAGE(C13,M13,T13,AA13,AH13)</f>
-        <v>12.299318440844342</v>
+        <v>16.567857409941489</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
-        <v>20.404742789050871</v>
+        <f>AVERAGE(N13,AB13,AI13)</f>
+        <v>14.216484663423254</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
-        <v>24.288484877182182</v>
+        <f t="shared" ref="J13:L13" si="0">AVERAGE(O13,AC13,AJ13)</f>
+        <v>21.815908392650996</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
-        <v>15.778948081710706</v>
+        <f t="shared" si="0"/>
+        <v>22.258520625044323</v>
       </c>
       <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.604567227786776</v>
+      </c>
+      <c r="M13">
         <v>14.62082191780822</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10.19864009935675</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>17.042945785512082</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>19.606888751083879</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>12.205370333130849</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1977</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>14.907162534435249</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>9.9836374022005927</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>19.072483977792238</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>19.501871297898958</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>11.748910263653469</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>1977</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>21.898611111111109</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>18.838591471433901</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>25.53814942430888</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>25.126990989631079</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>19.186513475620099</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1977</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>18.47272727272728</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>13.61222241947911</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>22.866629968132031</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>22.041682134418011</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>15.421817874609379</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1978</v>
       </c>
@@ -1733,96 +1735,94 @@
         <v>11.053066613712391</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(B14,L14,S14,Z14,AG14)</f>
-        <v>16.592081587984456</v>
+        <v>16.975170478131254</v>
       </c>
       <c r="H14">
-        <f t="shared" si="4"/>
-        <v>12.151638833898801</v>
+        <v>17.073826917210713</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
-        <v>19.731370799879681</v>
+        <v>12.712330097653066</v>
       </c>
       <c r="J14">
-        <f t="shared" si="4"/>
-        <v>20.843165016963869</v>
+        <v>20.124809802636658</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
-        <v>14.370640740018592</v>
+        <v>21.051491899598631</v>
       </c>
       <c r="L14">
+        <v>14.781764592596256</v>
+      </c>
+      <c r="M14">
         <v>15.05972602739727</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>9.9088737788817411</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>18.157614788851781</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>20.009857486424821</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>12.72614532970794</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1978</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>14.756712328767129</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>9.9753737489133396</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>17.90793938437135</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>19.245672514107611</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>12.48368380721362</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1978</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>21.69944903581268</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>18.14088305024082</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>24.710309334333061</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>25.213483417468471</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>19.65202732038717</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1978</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>18.43479452054795</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>14.6323580268831</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>22.08314977986959</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>21.846105240591498</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>15.938280629071841</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1979</v>
       </c>
@@ -1842,96 +1842,94 @@
         <v>9.7619898544968748</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(B15,L15,S15,Z15,AG15)</f>
-        <v>17.073506849315073</v>
+        <v>17.518664383561646</v>
       </c>
       <c r="H15">
-        <f t="shared" si="4"/>
-        <v>13.275129320376655</v>
+        <v>17.246917430846452</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
-        <v>21.08726781098769</v>
+        <v>13.961109223307261</v>
       </c>
       <c r="J15">
-        <f t="shared" si="4"/>
-        <v>21.315903967575696</v>
+        <v>21.62486054728172</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
-        <v>13.306093921087163</v>
+        <v>21.68316839021303</v>
       </c>
       <c r="L15">
+        <v>13.519231136876048</v>
+      </c>
+      <c r="M15">
         <v>15.29287671232877</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>10.53120970865424</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>18.936896865811558</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>19.846846277026351</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>12.45354505793161</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1979</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>15.151780821917811</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>11.12972637498793</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>19.063823509718361</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>20.032018179501179</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>10.98460525877406</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1979</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>22.31369863013699</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>19.111565367224902</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>26.845168234443221</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>25.581668298015959</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>18.6494785578303</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1979</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>18.94465753424657</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>16.73035953363204</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>22.66464999758098</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>22.504848970006439</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>14.68085087640296</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1980</v>
       </c>
@@ -1951,96 +1949,94 @@
         <v>10.793065107114099</v>
       </c>
       <c r="G16">
-        <f>AVERAGE(B16,L16,S16,Z16,AG16)</f>
-        <v>17.1558752061622</v>
+        <v>17.67640138475193</v>
       </c>
       <c r="H16">
-        <f t="shared" si="4"/>
-        <v>12.878908129927828</v>
+        <v>17.597532884156788</v>
       </c>
       <c r="I16">
-        <f t="shared" si="4"/>
-        <v>20.760079866054806</v>
+        <v>13.611186784089305</v>
       </c>
       <c r="J16">
-        <f t="shared" si="4"/>
-        <v>21.202827692834525</v>
+        <v>21.290108357662437</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
-        <v>14.528544499142253</v>
+        <v>21.508298620725142</v>
       </c>
       <c r="L16">
+        <v>15.065969903661699</v>
+      </c>
+      <c r="M16">
         <v>15.07377049180328</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>9.9497935132819162</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>18.639965899624301</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>19.98094398127202</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>12.378842881064481</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1980</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>15.457671232876709</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>10.977552515277649</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>18.87817388472218</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>19.726978458472839</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>12.853093535421459</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1980</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>22.606830601092881</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>19.29353368535412</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>26.633463387191679</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>25.318279003239319</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>20.170103027802512</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1980</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>19.296978021978031</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>15.89154241245749</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>23.22158956041298</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>22.535609433000069</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>16.447617944308721</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1981</v>
       </c>
@@ -2060,96 +2056,94 @@
         <v>11.71133766420777</v>
       </c>
       <c r="G17">
-        <f>AVERAGE(B17,L17,S17,Z17,AG17)</f>
-        <v>17.219487084936645</v>
+        <v>17.707257207819154</v>
       </c>
       <c r="H17">
-        <f t="shared" si="4"/>
-        <v>13.106321201443643</v>
+        <v>17.69182929628554</v>
       </c>
       <c r="I17">
-        <f t="shared" si="4"/>
-        <v>19.930338844177523</v>
+        <v>13.785818742045436</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
-        <v>21.540756622304652</v>
+        <v>20.462812538834058</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
-        <v>14.833822454458607</v>
+        <v>21.936867125757793</v>
       </c>
       <c r="L17">
+        <v>15.157281212418191</v>
+      </c>
+      <c r="M17">
         <v>15.268406593406599</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>10.388331039036469</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>17.800444065551389</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>19.956314608492089</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>13.539987422620261</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1981</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>15.940454545454539</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>10.89863947239197</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>18.501979709830241</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>20.64214107020079</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>13.407811957507271</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1981</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>22.302465753424642</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>19.26770592983727</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>25.095972125133979</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>25.63063346742652</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>20.173588076389159</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1981</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>18.789807162534441</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>16.08879491569397</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>21.9513509951157</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>22.683907795967031</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>15.336387151568569</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1982</v>
       </c>
@@ -2169,96 +2163,94 @@
         <v>9.6571884528718233</v>
       </c>
       <c r="G18">
-        <f>AVERAGE(B18,L18,S18,Z18,AG18)</f>
-        <v>16.741477495107631</v>
+        <v>17.255624341412013</v>
       </c>
       <c r="H18">
-        <f t="shared" si="4"/>
-        <v>12.804292457793816</v>
+        <v>17.481440774615585</v>
       </c>
       <c r="I18">
-        <f t="shared" si="4"/>
-        <v>19.866277276180458</v>
+        <v>13.486786874911612</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
-        <v>21.450455912220569</v>
+        <v>20.432295924715817</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
-        <v>13.574932852765851</v>
+        <v>21.825277817175465</v>
       </c>
       <c r="L18">
+        <v>14.025894361004543</v>
+      </c>
+      <c r="M18">
         <v>14.684890109890111</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>10.07431478932263</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>17.602202682039021</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>19.951168292401</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>11.771086819811091</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1982</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>15.13434065934065</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>10.62165154969324</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>18.45446644122034</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>20.338501533371751</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>11.78649795605986</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1982</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>22.013972602739742</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>18.821863399220408</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>25.076878814561919</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>25.678593842037252</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>19.422539000830309</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1982</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>18.627197802197799</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>15.798764387952151</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>21.75990495599028</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>22.554768217538101</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>15.23735203425618</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1983</v>
       </c>
@@ -2278,96 +2270,94 @@
         <v>10.42199088149294</v>
       </c>
       <c r="G19">
-        <f>AVERAGE(B19,L19,S19,Z19,AG19)</f>
-        <v>16.806863080233178</v>
+        <v>17.351573355785973</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
-        <v>11.346961246726385</v>
+        <v>17.303598848598995</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
-        <v>20.977541508529463</v>
+        <v>11.974328461770975</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
-        <v>21.575439738176311</v>
+        <v>21.769173581590291</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
-        <v>13.941621334101194</v>
+        <v>22.021606280621473</v>
       </c>
       <c r="L19">
+        <v>14.27573247306657</v>
+      </c>
+      <c r="M19">
         <v>14.628021978021989</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>8.8374923865480302</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>17.811013216286138</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>19.790773568395661</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>12.605176778239681</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1983</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>14.954109589041099</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>8.8891294616632592</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>19.1473018290244</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>20.025418494927958</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>12.333548890826741</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1983</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>22.591160220994471</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>18.737032912634721</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>26.825020646313881</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>26.047593411326488</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>19.558940641313381</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1983</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>18.55315068493152</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>13.4255418265328</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>23.674284669846049</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>23.087551828451499</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>14.78844947863322</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1984</v>
       </c>
@@ -2387,96 +2377,94 @@
         <v>10.876869466103191</v>
       </c>
       <c r="G20">
-        <f>AVERAGE(B20,L20,S20,Z20,AG20)</f>
-        <v>17.079262295081961</v>
+        <v>17.643818306010921</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
-        <v>13.237329244469521</v>
+        <v>17.497695830898447</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>20.562390566027794</v>
+        <v>13.955349763316162</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
-        <v>20.819515649328007</v>
+        <v>21.192518391006487</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
-        <v>14.431321971022843</v>
+        <v>21.235289198702411</v>
       </c>
       <c r="L20">
+        <v>14.95191013557681</v>
+      </c>
+      <c r="M20">
         <v>14.821038251366121</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>10.36524716908295</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>18.041879266113028</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>19.15642145183039</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>12.348969312806959</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1984</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>15.49234972677595</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>11.29108933474355</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>19.12579452559368</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>19.601906722770959</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>12.60090814011768</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1984</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>22.594808743169391</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>19.511395966072911</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>26.17500022688257</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>25.368995580557911</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>20.320205876536011</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1984</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>18.82021857923495</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>15.01566529479706</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>22.797519611756542</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>22.274864693787521</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>16.00965705955036</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1985</v>
       </c>
@@ -2496,96 +2484,94 @@
         <v>10.8763790159359</v>
       </c>
       <c r="G21">
-        <f>AVERAGE(B21,L21,S21,Z21,AG21)</f>
-        <v>16.82145205479452</v>
+        <v>17.339965753424657</v>
       </c>
       <c r="H21">
-        <f t="shared" si="4"/>
-        <v>12.696859213827441</v>
+        <v>17.491892029717789</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>20.174861434791517</v>
+        <v>13.339781664036847</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
-        <v>20.921516474449216</v>
+        <v>20.770659542758313</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
-        <v>14.189905673598076</v>
+        <v>21.293318360855459</v>
       </c>
       <c r="L21">
+        <v>14.681814240604098</v>
+      </c>
+      <c r="M21">
         <v>14.74739726027396</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10.125169412989811</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>17.79166900292433</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>19.434308928824251</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>12.22227140557399</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1985</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>15.16835616438356</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>10.53990099260826</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>18.572810928852679</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>19.77719463829099</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>12.40055334934911</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1985</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>22.40438356164384</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>19.532348844067489</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>25.91840659589981</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>25.243141256310398</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>19.892610933440611</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>1985</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>18.296986301369849</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>14.47572961438663</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>22.038434281447881</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>21.900813746671599</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>15.55771366369077</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1986</v>
       </c>
@@ -2605,96 +2591,94 @@
         <v>10.332351945825391</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(B22,L22,S22,Z22,AG22)</f>
-        <v>16.878936775553214</v>
+        <v>17.382438092729188</v>
       </c>
       <c r="H22">
-        <f t="shared" si="4"/>
-        <v>12.742520657931419</v>
+        <v>17.361201923076923</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
-        <v>20.629174301481228</v>
+        <v>13.314469796267078</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
-        <v>20.68295126602662</v>
+        <v>21.239512742228118</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
-        <v>14.14496810308531</v>
+        <v>21.017726286531033</v>
       </c>
       <c r="L22">
+        <v>14.665932217428445</v>
+      </c>
+      <c r="M22">
         <v>14.86493150684932</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10.45472410458877</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>18.187820538493671</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>19.343851184008962</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>12.061111645712771</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1986</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>15.24054794520548</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>10.57155445547343</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>19.203547372844529</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>19.272034724329242</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>12.52283210162336</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1986</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>22.321095890410952</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>18.842581653822979</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>25.846356116438471</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>25.370034144090329</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>20.172745771015659</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>1986</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>18.359615384615381</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>14.737508106826519</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>22.081741036059871</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>21.71957406246382</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>15.635799051249361</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1987</v>
       </c>
@@ -2714,96 +2698,94 @@
         <v>11.25524295593288</v>
       </c>
       <c r="G23">
-        <f>AVERAGE(B23,L23,S23,Z23,AG23)</f>
-        <v>17.353041044736223</v>
+        <v>17.879725963454526</v>
       </c>
       <c r="H23">
-        <f t="shared" si="4"/>
-        <v>13.38192914779791</v>
+        <v>17.631082028091857</v>
       </c>
       <c r="I23">
-        <f t="shared" si="4"/>
-        <v>21.075801603845264</v>
+        <v>14.095314978901309</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
-        <v>21.027314687674203</v>
+        <v>21.793137113217316</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
-        <v>14.652771392424839</v>
+        <v>21.403317677027509</v>
       </c>
       <c r="L23">
+        <v>14.988624263232914</v>
+      </c>
+      <c r="M23">
         <v>15.246301369863</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>10.528385823384321</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>18.206459566357069</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>19.523302730260969</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>13.30935990919253</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1987</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>15.84155124653739</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>11.398572827283029</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>19.9822246824465</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>19.905674290481841</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>12.87742208806112</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>1987</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>22.827900552486199</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>19.627756609702519</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>26.564959512404862</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>25.68010906678359</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>20.361660280119729</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1987</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>19.115890410958912</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>15.95041675674252</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>23.42617297841824</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>22.4110823267659</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>15.460171728817929</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1988</v>
       </c>
@@ -2823,96 +2805,94 @@
         <v>11.527230901694921</v>
       </c>
       <c r="G24">
-        <f>AVERAGE(B24,L24,S24,Z24,AG24)</f>
-        <v>17.422505380022326</v>
+        <v>17.87430658841588</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
-        <v>13.734264038333169</v>
+        <v>17.877016275935205</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
-        <v>20.842041775866438</v>
+        <v>14.369125691258812</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
-        <v>21.108706550388799</v>
+        <v>21.441545462782614</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
-        <v>14.781443167308968</v>
+        <v>21.542885082740721</v>
       </c>
       <c r="L24">
+        <v>14.951235046339491</v>
+      </c>
+      <c r="M24">
         <v>15.615300546448101</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11.1948174266306</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>18.444027028201731</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>19.371992420981101</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>14.102275651186879</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>1988</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>15.79972375690607</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>11.952731569530579</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>19.646507963543371</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>19.767109935119109</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>12.70247197921806</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1988</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>22.628650137741051</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>19.94349723420116</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>25.87653801661984</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>25.576957707247651</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>20.038713698696959</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1988</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>18.922131147540991</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>16.092861722601558</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>22.77061728547713</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>22.139250894856151</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>15.53652360574802</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1989</v>
       </c>
@@ -2932,96 +2912,94 @@
         <v>9.8198612054532024</v>
       </c>
       <c r="G25">
-        <f>AVERAGE(B25,L25,S25,Z25,AG25)</f>
-        <v>16.976466391614846</v>
+        <v>17.444128695889749</v>
       </c>
       <c r="H25">
-        <f t="shared" si="4"/>
-        <v>12.682825155981483</v>
+        <v>17.659217642152814</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
-        <v>20.589912546987541</v>
+        <v>13.234656952125102</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
-        <v>21.229636534950895</v>
+        <v>21.111445554536068</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
-        <v>14.177972327759599</v>
+        <v>21.616954781129014</v>
       </c>
       <c r="L25">
+        <v>14.576263573690838</v>
+      </c>
+      <c r="M25">
         <v>15.105817174515231</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>10.475497971407011</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>18.50378051679342</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19.680363550238422</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12.58480734403464</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>1989</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>15.500690607734811</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10.917252572994791</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>19.204357230368611</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>20.09579241686944</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>12.405027466435749</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>1989</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>22.72774725274726</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>19.721594413713351</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>26.397544373809009</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>25.81732920557414</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>19.976507757594529</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>1989</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>18.396978021978018</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>13.67547624136224</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>22.20736942071952</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>22.415815943899521</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>16.103657865279871</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1990</v>
       </c>
@@ -3041,96 +3019,94 @@
         <v>11.174672404407101</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(B26,L26,S26,Z26,AG26)</f>
-        <v>16.959277975713565</v>
+        <v>17.425741305258398</v>
       </c>
       <c r="H26">
-        <f t="shared" si="4"/>
-        <v>12.73094662266311</v>
+        <v>17.434935000574072</v>
       </c>
       <c r="I26">
-        <f t="shared" si="4"/>
-        <v>19.568977012960111</v>
+        <v>13.371806895074981</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
-        <v>21.264774179353385</v>
+        <v>20.112584506538617</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
-        <v>15.002571046884441</v>
+        <v>21.631564562370436</v>
       </c>
       <c r="L26">
+        <v>15.353798571257631</v>
+      </c>
+      <c r="M26">
         <v>15.093424657534239</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>10.16750553301563</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>17.394547038646081</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>19.797612647285199</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>13.597660949391679</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>1990</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>15.33972602739726</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>10.64685836192217</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>17.76982810143263</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>20.201584700183361</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>13.34570682028734</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1990</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>22.653443526170811</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>19.530927209246741</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>25.690082905206701</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>25.775188360930141</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>20.51387508432169</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>1990</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>18.72724719101123</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>15.038616402681789</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>21.718910228479061</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>22.650171912433699</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>16.380939976014389</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -3150,96 +3126,94 @@
         <v>10.60521618026821</v>
       </c>
       <c r="G27">
-        <f>AVERAGE(B27,L27,S27,Z27,AG27)</f>
-        <v>17.319519675339802</v>
+        <v>17.822276306503515</v>
       </c>
       <c r="H27">
-        <f t="shared" si="4"/>
-        <v>13.819554186845002</v>
+        <v>17.624008805880955</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>20.419476093949754</v>
+        <v>14.484532995964543</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
-        <v>21.244243355285231</v>
+        <v>21.046612845353</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
-        <v>14.492115017738399</v>
+        <v>21.624875898869355</v>
       </c>
       <c r="L27">
+        <v>14.854552302201826</v>
+      </c>
+      <c r="M27">
         <v>15.30849315068494</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>11.159638950366841</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>17.910929088336768</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>19.72171318094875</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>13.04236587988469</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1991</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>15.80835616438355</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>11.822187315132471</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>19.206811297817939</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>19.965778094567209</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>12.862453335003121</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1991</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>22.823463687150831</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>20.309232524547181</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>25.5614294824748</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>25.891034656097069</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>20.31075147158025</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>1991</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>19.038483146067421</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>16.587938822757739</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>22.44852708121886</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>22.33988957204982</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>15.639788221955721</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1992</v>
       </c>
@@ -3259,96 +3233,94 @@
         <v>9.1419045236985657</v>
       </c>
       <c r="G28">
-        <f>AVERAGE(B28,L28,S28,Z28,AG28)</f>
-        <v>16.562296332144243</v>
+        <v>17.040440247582538</v>
       </c>
       <c r="H28">
-        <f t="shared" si="4"/>
-        <v>11.873125973543463</v>
+        <v>17.431358277043024</v>
       </c>
       <c r="I28">
-        <f t="shared" si="4"/>
-        <v>20.955458956838353</v>
+        <v>12.454979887395353</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
-        <v>21.263355340293227</v>
+        <v>21.621938610494002</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
-        <v>13.192745839632277</v>
+        <v>21.662189416530566</v>
       </c>
       <c r="L28">
+        <v>13.466360653127618</v>
+      </c>
+      <c r="M28">
         <v>14.64972067039106</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>9.5457103181358995</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>18.289540342215741</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>19.66801903534386</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>12.098286585650911</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1992</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>15.10808219178082</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>9.8656284320344216</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>19.461063860415582</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>20.257780196680081</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>11.492993992692339</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1992</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>22.20578512396694</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>18.72454702805053</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>26.500675049257971</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>25.902076463653231</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>18.589008349684239</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1992</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>18.05611285266458</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>13.72843888816217</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>23.2307968265258</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>22.620935774563279</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>14.641535746435331</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1993</v>
       </c>
@@ -3368,96 +3340,94 @@
         <v>10.85697722308368</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(B29,L29,S29,Z29,AG29)</f>
-        <v>17.032742715856354</v>
+        <v>17.544440791514656</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:K44" si="5">AVERAGE(C29,M29,T29,AA29,AH29)</f>
-        <v>12.663013884224144</v>
+        <v>17.292440519548599</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
-        <v>20.448050233436216</v>
+        <v>13.301418159952023</v>
       </c>
       <c r="J29">
-        <f t="shared" si="5"/>
-        <v>21.396724817732366</v>
+        <v>21.180421197448528</v>
       </c>
       <c r="K29">
-        <f t="shared" si="5"/>
-        <v>14.437339423128559</v>
+        <v>21.869328191511727</v>
       </c>
       <c r="L29">
+        <v>14.677385456667086</v>
+      </c>
+      <c r="M29">
         <v>14.985950413223151</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>10.10939678131262</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>17.518566377386978</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>19.506311322614931</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>13.47715528897446</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1993</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>15.75056818181818</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>11.222336686727671</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>19.58152399837693</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>20.652361138598639</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>12.403255488807689</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1993</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>22.508611111111101</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>19.268460761682391</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>25.772734943741568</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>25.755457352865811</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>20.21401096032265</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1993</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>18.598198198198201</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>14.68263846693876</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>22.599145639833651</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>22.869296854459101</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>15.23529815445433</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1994</v>
       </c>
@@ -3477,96 +3447,94 @@
         <v>10.574532361120481</v>
       </c>
       <c r="G30">
-        <f>AVERAGE(B30,L30,S30,Z30,AG30)</f>
-        <v>17.5320300621838</v>
+        <v>18.026369995312169</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
-        <v>13.615946121917204</v>
+        <v>17.785405393413413</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
-        <v>21.219423765222256</v>
+        <v>14.246295439115078</v>
       </c>
       <c r="J30">
-        <f t="shared" si="5"/>
-        <v>21.506322893495302</v>
+        <v>21.795657271425107</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
-        <v>14.507543738606582</v>
+        <v>21.797721442905903</v>
       </c>
       <c r="L30">
+        <v>15.004600446929494</v>
+      </c>
+      <c r="M30">
         <v>15.55467032967033</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>11.094548853125691</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>18.914489740410851</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>20.34072869585291</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>12.519316905314939</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1994</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>16.33487394957983</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>12.23845322119918</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>20.122826112341318</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>20.524165070558599</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>13.36579625531313</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1994</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>22.903361344537799</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>20.022625985766471</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>26.643030388263799</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>26.00176656082802</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>19.994717510438299</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1994</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>19.048511904761909</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>15.606522141445121</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>22.70887939599816</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>22.162729724457851</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>16.08335566084607</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1995</v>
       </c>
@@ -3586,96 +3554,94 @@
         <v>11.514005850122199</v>
       </c>
       <c r="G31">
-        <f>AVERAGE(B31,L31,S31,Z31,AG31)</f>
-        <v>17.3624289659626</v>
+        <v>17.825159495124481</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
-        <v>13.178758819716176</v>
+        <v>17.925764745218324</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
-        <v>21.112385774897756</v>
+        <v>13.768463666719869</v>
       </c>
       <c r="J31">
-        <f t="shared" si="5"/>
-        <v>21.111106002515598</v>
+        <v>21.717090763291395</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
-        <v>15.051553067773677</v>
+        <v>21.486054436036202</v>
       </c>
       <c r="L31">
+        <v>15.430149712691783</v>
+      </c>
+      <c r="M31">
         <v>15.511506849315071</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>10.8199394317014</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>18.69356582132318</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>19.611312268433188</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>13.537166488101249</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1995</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>16.257260273972609</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>11.757093924679991</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>20.233767319915842</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>20.21928440294085</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>13.484410828862091</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1995</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>22.667177914110429</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>19.818231752649069</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>26.518500389593139</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>25.648596665154681</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>20.837019297870089</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1995</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>18.71847507331378</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>14.672488760246489</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>22.945452085999982</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>22.176310810749509</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>15.88516287391275</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1996</v>
       </c>
@@ -3695,96 +3661,94 @@
         <v>11.30667397663176</v>
       </c>
       <c r="G32">
-        <f>AVERAGE(B32,L32,S32,Z32,AG32)</f>
-        <v>17.317799061208149</v>
+        <v>17.801575749587112</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
-        <v>13.355659177647402</v>
+        <v>17.813367622355798</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
-        <v>20.392933858657848</v>
+        <v>13.987101610983153</v>
       </c>
       <c r="J32">
-        <f t="shared" si="5"/>
-        <v>21.170342294303737</v>
+        <v>20.990074084929745</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
-        <v>15.161460002781212</v>
+        <v>21.516701475845885</v>
       </c>
       <c r="L32">
+        <v>15.556667952685025</v>
+      </c>
+      <c r="M32">
         <v>15.382692307692301</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>10.82988944430441</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>18.004372953570261</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>19.784905568135141</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>13.580628203165951</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>1996</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>16.238842975206619</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>12.115462570600871</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>19.526222104718151</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>20.345816312120231</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>13.78896098727024</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1996</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>22.690633608815411</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>19.523277272007132</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>25.77798333766215</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>25.544984407390611</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>21.019967601063811</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1996</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>18.593447293447291</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>15.12382170988789</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>21.886417083364702</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>22.133070120119442</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>16.111069245774289</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1997</v>
       </c>
@@ -3804,96 +3768,94 @@
         <v>10.87118526640702</v>
       </c>
       <c r="G33">
-        <f>AVERAGE(B33,L33,S33,Z33,AG33)</f>
-        <v>17.037248985042506</v>
+        <v>17.583547532672995</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
-        <v>12.709577094631234</v>
+        <v>17.692561641130055</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
-        <v>20.259798676994759</v>
+        <v>13.409388342054864</v>
       </c>
       <c r="J33">
-        <f t="shared" si="5"/>
-        <v>20.668957130808945</v>
+        <v>20.957703365601773</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
-        <v>15.281447897294285</v>
+        <v>20.950367865771682</v>
       </c>
       <c r="L33">
+        <v>15.830938599326645</v>
+      </c>
+      <c r="M33">
         <v>14.85205479452055</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9.9103321049367121</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>17.468179922566701</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>19.543314190957989</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>13.08348508916484</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>1997</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>15.805955678670349</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>11.653544523265181</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>18.954683759392509</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>19.319397959023561</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>13.96636220865132</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1997</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>22.80082872928179</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>19.58359196968896</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>25.78065149817597</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>25.52906576271857</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>21.365434430446339</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>1997</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>18.654829545454529</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>14.44446304313824</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>22.554053217871871</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>21.455308462858461</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>17.120772491801901</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1998</v>
       </c>
@@ -3913,96 +3875,94 @@
         <v>11.56912428073786</v>
       </c>
       <c r="G34">
-        <f>AVERAGE(B34,L34,S34,Z34,AG34)</f>
-        <v>17.953810864822621</v>
+        <v>18.513564950891286</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
-        <v>14.10114116653217</v>
+        <v>18.048556241782141</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
-        <v>21.106039690780101</v>
+        <v>14.943342202318167</v>
       </c>
       <c r="J34">
-        <f t="shared" si="5"/>
-        <v>21.55955135525171</v>
+        <v>21.803516152149395</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
-        <v>15.758033669669448</v>
+        <v>22.010191057676167</v>
       </c>
       <c r="L34">
+        <v>16.041065225431474</v>
+      </c>
+      <c r="M34">
         <v>15.714794520547949</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>10.73233702338818</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>18.316133845302929</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>19.756992545553882</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>14.625907446621349</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>1998</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>17.118715083798879</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>13.071879822106499</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>20.324766479993009</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>20.986080412598081</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>14.74093871965926</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1998</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>23.039178082191789</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>20.58426213299655</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>26.052534631848101</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>25.585098540899111</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>20.91701559163527</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>1998</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>19.790410958904101</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>17.022716256034869</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>23.103890694701889</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>22.895166396335419</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>16.937182309693501</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1999</v>
       </c>
@@ -4022,96 +3982,94 @@
         <v>10.94636400308503</v>
       </c>
       <c r="G35">
-        <f>AVERAGE(B35,L35,S35,Z35,AG35)</f>
-        <v>17.922134505030893</v>
+        <v>18.349234065354555</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
-        <v>15.075970990630651</v>
+        <v>18.431399508122922</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
-        <v>21.203406611322421</v>
+        <v>15.709198746649584</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
-        <v>21.358848960087563</v>
+        <v>21.734983171171425</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
-        <v>14.761129085837862</v>
+        <v>21.731830242105232</v>
       </c>
       <c r="L35">
+        <v>14.95922139140977</v>
+      </c>
+      <c r="M35">
         <v>16.213736263736259</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>12.543059966554919</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>19.077100371926409</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>19.866923832016901</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>13.968759863550231</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1999</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>17.424653739612179</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>14.65138499797848</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>20.65631611516476</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>20.96506609144129</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>14.0176770968851</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1999</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>22.569780219780249</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>20.425665866662889</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>25.847830050899439</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>25.53462063631412</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>19.44909799556125</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1999</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>19.02458563535912</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>16.590142879281291</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>22.365976820820901</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>22.466251808655819</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>15.4237464701077</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2000</v>
       </c>
@@ -4131,96 +4089,94 @@
         <v>10.792895260903091</v>
       </c>
       <c r="G36">
-        <f>AVERAGE(B36,L36,S36,Z36,AG36)</f>
-        <v>17.294592304715074</v>
+        <v>17.747816883626079</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
-        <v>13.085599442248801</v>
+        <v>18.048525474490319</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
-        <v>20.249372143863496</v>
+        <v>13.695617269935854</v>
       </c>
       <c r="J36">
-        <f t="shared" si="5"/>
-        <v>21.461430302793644</v>
+        <v>20.705184684302104</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
-        <v>15.1397948813678</v>
+        <v>21.838834281122441</v>
       </c>
       <c r="L36">
+        <v>15.526187189037062</v>
+      </c>
+      <c r="M36">
         <v>15.48169398907104</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>10.645528131500599</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>18.42612198210908</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>19.95181438947845</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>13.594225650690751</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>16.604005524861879</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>12.37274301134067</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>19.497292401279608</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>21.021359414037409</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>14.167583446705279</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>2000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>22.365300546448111</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>19.099183141391901</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>25.07305307748242</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>25.564506746046899</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>20.710316282560441</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>18.765934065934061</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>15.11088069098111</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>21.799626118910119</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>22.631847242318401</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>16.433953765979432</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2001</v>
       </c>
@@ -4240,96 +4196,94 @@
         <v>11.04666190500982</v>
       </c>
       <c r="G37">
-        <f>AVERAGE(B37,L37,S37,Z37,AG37)</f>
-        <v>17.603672046923606</v>
+        <v>18.031925223489669</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
-        <v>13.984732661642052</v>
+        <v>17.889871053557876</v>
       </c>
       <c r="I37">
-        <f t="shared" si="5"/>
-        <v>20.438124968613881</v>
+        <v>14.634956026687284</v>
       </c>
       <c r="J37">
-        <f t="shared" si="5"/>
-        <v>21.817899432841269</v>
+        <v>20.911320710816501</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
-        <v>14.875242496337147</v>
+        <v>22.132831317167135</v>
       </c>
       <c r="L37">
+        <v>15.178409643359098</v>
+      </c>
+      <c r="M37">
         <v>15.890659340659351</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>11.38383920146112</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>18.545341999803391</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>20.558171895537811</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>13.662573908249341</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>2001</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>16.817768595041318</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>13.20309935240159</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>19.63678343298109</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>21.20512347189171</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>13.828451993985921</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>2001</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>22.53726027397261</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>20.016657590459911</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>25.35245113271958</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>25.849614203761391</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>19.889242568288701</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>2001</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>19.12005494505495</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>15.9745653410109</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>22.3054903969111</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>23.086064255410079</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>15.94928210615195</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2002</v>
       </c>
@@ -4349,96 +4303,94 @@
         <v>11.459303976978131</v>
       </c>
       <c r="G38">
-        <f>AVERAGE(B38,L38,S38,Z38,AG38)</f>
-        <v>17.602080685716587</v>
+        <v>18.044587158515597</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
-        <v>14.023630287956824</v>
+        <v>18.038256191002631</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
-        <v>20.735144230424329</v>
+        <v>14.596527195497531</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
-        <v>21.045008110904682</v>
+        <v>21.339410117701281</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
-        <v>15.315317278543827</v>
+        <v>21.240884671523411</v>
       </c>
       <c r="L38">
+        <v>15.731204821255194</v>
+      </c>
+      <c r="M38">
         <v>15.832054794520539</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>11.732042657794009</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>18.31808068131652</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>20.261501868429761</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>13.65176710769836</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>2002</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>16.818181818181809</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>13.39264885627729</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>20.38337124651628</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>19.965816559477091</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>14.158461434717241</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>2002</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>22.41506849315067</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>19.37796286211621</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>25.16431264981011</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>25.575539284823499</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>20.496622201829229</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>2002</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>19.289835164835171</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>15.990828503789009</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>22.898961432933088</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>22.24006591581967</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>16.810431671496179</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2003</v>
       </c>
@@ -4458,96 +4410,94 @@
         <v>11.85010113018455</v>
       </c>
       <c r="G39">
-        <f>AVERAGE(B39,L39,S39,Z39,AG39)</f>
-        <v>17.899536655125697</v>
+        <v>18.424283832605752</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
-        <v>13.63945583786878</v>
+        <v>18.234435495560675</v>
       </c>
       <c r="I39">
-        <f t="shared" si="5"/>
-        <v>21.117529057477192</v>
+        <v>14.285619678842103</v>
       </c>
       <c r="J39">
-        <f t="shared" si="5"/>
-        <v>22.066576175118531</v>
+        <v>21.776806704590129</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
-        <v>15.481470839984173</v>
+        <v>22.428705268168734</v>
       </c>
       <c r="L39">
+        <v>15.934306574144079</v>
+      </c>
+      <c r="M39">
         <v>15.80054794520548</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>11.05480047397549</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>18.480418469025459</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>20.61805980291771</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>13.67012790334454</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>2003</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>17.134109589041099</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>12.66825165395864</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>20.683333749961719</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>21.392563223472571</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>14.471831102551279</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>2003</v>
       </c>
-      <c r="Z39">
+      <c r="AA39">
         <v>22.783013698630139</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>19.633088476245739</v>
       </c>
-      <c r="AB39">
+      <c r="AC39">
         <v>25.718289149997911</v>
       </c>
-      <c r="AC39">
+      <c r="AD39">
         <v>26.02908194874809</v>
       </c>
-      <c r="AD39">
+      <c r="AE39">
         <v>20.699963284802489</v>
       </c>
-      <c r="AF39">
+      <c r="AG39">
         <v>2003</v>
       </c>
-      <c r="AG39">
+      <c r="AH39">
         <v>19.554395604395609</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>15.636975601166171</v>
       </c>
-      <c r="AI39">
+      <c r="AJ39">
         <v>23.38350507069158</v>
       </c>
-      <c r="AJ39">
+      <c r="AK39">
         <v>23.24282680343283</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <v>16.715330779037998</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2004</v>
       </c>
@@ -4567,96 +4517,94 @@
         <v>10.57880544706722</v>
       </c>
       <c r="G40">
-        <f>AVERAGE(B40,L40,S40,Z40,AG40)</f>
-        <v>17.435762776709783</v>
+        <v>17.906725328810722</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
-        <v>14.115419978439155</v>
+        <v>18.165504580708237</v>
       </c>
       <c r="I40">
-        <f t="shared" si="5"/>
-        <v>20.308324495137107</v>
+        <v>14.671596949768793</v>
       </c>
       <c r="J40">
-        <f t="shared" si="5"/>
-        <v>21.600723654077374</v>
+        <v>20.807986886863628</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
-        <v>14.47718990043461</v>
+        <v>22.019877231175744</v>
       </c>
       <c r="L40">
+        <v>14.904720723632002</v>
+      </c>
+      <c r="M40">
         <v>15.551912568306021</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>11.890712093120611</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>18.30967492823104</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>19.924109345683888</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>12.767066607645051</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>2004</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>16.486202185792351</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>13.12327749070284</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>19.198717953296288</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>21.091223513298619</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>13.27686772937556</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>2004</v>
       </c>
-      <c r="Z40">
+      <c r="AA40">
         <v>22.343169398907111</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>19.6267372360027</v>
       </c>
-      <c r="AB40">
+      <c r="AC40">
         <v>25.412288891758219</v>
       </c>
-      <c r="AC40">
+      <c r="AD40">
         <v>25.738359586399419</v>
       </c>
-      <c r="AD40">
+      <c r="AE40">
         <v>19.59999960092177</v>
       </c>
-      <c r="AF40">
+      <c r="AG40">
         <v>2004</v>
       </c>
-      <c r="AG40">
+      <c r="AH40">
         <v>19.048351648351652</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>15.582437928102991</v>
       </c>
-      <c r="AI40">
+      <c r="AJ40">
         <v>22.138280275502101</v>
       </c>
-      <c r="AJ40">
+      <c r="AK40">
         <v>23.08850898699383</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <v>16.163210117163459</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2005</v>
       </c>
@@ -4676,96 +4624,94 @@
         <v>11.80411745051159</v>
       </c>
       <c r="G41">
-        <f>AVERAGE(B41,L41,S41,Z41,AG41)</f>
-        <v>18.200955909883763</v>
+        <v>18.712802030211847</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
-        <v>14.010036788131567</v>
+        <v>18.309763679511285</v>
       </c>
       <c r="I41">
-        <f t="shared" si="5"/>
-        <v>21.688671136044949</v>
+        <v>14.631182896016902</v>
       </c>
       <c r="J41">
-        <f t="shared" si="5"/>
-        <v>22.136529604935625</v>
+        <v>22.38471343948412</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
-        <v>15.607503852523683</v>
+        <v>22.468150839469303</v>
       </c>
       <c r="L41">
+        <v>16.018536226073159</v>
+      </c>
+      <c r="M41">
         <v>16.153571428571439</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>11.525452356590231</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>18.904501922288251</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>20.810044666800909</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>13.963374358325771</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>2005</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>17.65141643059491</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>13.422363691752359</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>21.363319088369959</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>21.301535038188021</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>14.83384550269853</v>
       </c>
-      <c r="Y41">
+      <c r="Z41">
         <v>2005</v>
       </c>
-      <c r="Z41">
+      <c r="AA41">
         <v>22.959726027397259</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>19.79251930262226</v>
       </c>
-      <c r="AB41">
+      <c r="AC41">
         <v>25.907827350458891</v>
       </c>
-      <c r="AC41">
+      <c r="AD41">
         <v>26.113460430286949</v>
       </c>
-      <c r="AD41">
+      <c r="AE41">
         <v>20.970652169575231</v>
       </c>
-      <c r="AF41">
+      <c r="AG41">
         <v>2005</v>
       </c>
-      <c r="AG41">
+      <c r="AH41">
         <v>19.661983471074379</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>15.837582643645581</v>
       </c>
-      <c r="AI41">
+      <c r="AJ41">
         <v>23.840425336394478</v>
       </c>
-      <c r="AJ41">
+      <c r="AK41">
         <v>23.314005532467331</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <v>16.465529781507289</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -4785,96 +4731,94 @@
         <v>11.776131711418611</v>
       </c>
       <c r="G42">
-        <f>AVERAGE(B42,L42,S42,Z42,AG42)</f>
-        <v>18.221412073945661</v>
+        <v>18.770669202021118</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
-        <v>15.067889297645909</v>
+        <v>18.741735616116483</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
-        <v>21.006810180815215</v>
+        <v>15.878124254400189</v>
       </c>
       <c r="J42">
-        <f t="shared" si="5"/>
-        <v>22.054389505481524</v>
+        <v>21.623060797661083</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
-        <v>15.573994607092649</v>
+        <v>22.368774803952988</v>
       </c>
       <c r="L42">
+        <v>16.073299306805144</v>
+      </c>
+      <c r="M42">
         <v>16.02438356164383</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11.826949470628779</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>18.541807713431741</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>20.796848311595671</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>13.576775808242671</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>2006</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>17.120391061452519</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>14.305804041019471</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>19.679325227242501</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>21.13262538084987</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>14.296020059811941</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>2006</v>
       </c>
-      <c r="Z42">
+      <c r="AA42">
         <v>23.042739726027389</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>20.57436132558469</v>
       </c>
-      <c r="AB42">
+      <c r="AC42">
         <v>25.7945915093457</v>
       </c>
-      <c r="AC42">
+      <c r="AD42">
         <v>25.95775500467704</v>
       </c>
-      <c r="AD42">
+      <c r="AE42">
         <v>20.829028827930159</v>
       </c>
-      <c r="AF42">
+      <c r="AG42">
         <v>2006</v>
       </c>
-      <c r="AG42">
+      <c r="AH42">
         <v>19.827397260273969</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>16.64708425159607</v>
       </c>
-      <c r="AI42">
+      <c r="AJ42">
         <v>23.05868599270763</v>
       </c>
-      <c r="AJ42">
+      <c r="AK42">
         <v>23.041456581874652</v>
       </c>
-      <c r="AK42">
+      <c r="AL42">
         <v>17.39201662805986</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2007</v>
       </c>
@@ -4894,96 +4838,94 @@
         <v>10.71495795338498</v>
       </c>
       <c r="G43">
-        <f>AVERAGE(B43,L43,S43,Z43,AG43)</f>
-        <v>17.552203324611366</v>
+        <v>18.024226758503929</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
-        <v>13.702859659390967</v>
+        <v>18.397447980262523</v>
       </c>
       <c r="I43">
-        <f t="shared" si="5"/>
-        <v>20.518437027398353</v>
+        <v>14.42266638126474</v>
       </c>
       <c r="J43">
-        <f t="shared" si="5"/>
-        <v>21.558634668537845</v>
+        <v>20.98337098833192</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
-        <v>15.161347767468399</v>
+        <v>21.894225813086447</v>
       </c>
       <c r="L43">
+        <v>15.554465209856577</v>
+      </c>
+      <c r="M43">
         <v>15.664109589041111</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>10.82363277189588</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>18.658701183664089</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>20.216270090343439</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>13.588877997915681</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>2007</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>16.435674157303371</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>12.659480047541409</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>19.176199140543019</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>20.370463319357071</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>14.152674131084909</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>2007</v>
       </c>
-      <c r="Z43">
+      <c r="AA43">
         <v>22.733698630136981</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>19.721937348062038</v>
       </c>
-      <c r="AB43">
+      <c r="AC43">
         <v>25.719720785817</v>
       </c>
-      <c r="AC43">
+      <c r="AD43">
         <v>25.977801684833441</v>
       </c>
-      <c r="AD43">
+      <c r="AE43">
         <v>20.494880748129681</v>
       </c>
-      <c r="AF43">
+      <c r="AG43">
         <v>2007</v>
       </c>
-      <c r="AG43">
+      <c r="AH43">
         <v>19.226027397260282</v>
       </c>
-      <c r="AH43">
+      <c r="AI43">
         <v>15.876078713906621</v>
       </c>
-      <c r="AI43">
+      <c r="AJ43">
         <v>22.17427127464514</v>
       </c>
-      <c r="AJ43">
+      <c r="AK43">
         <v>22.8287114845856</v>
       </c>
-      <c r="AK43">
+      <c r="AL43">
         <v>16.855348006826741</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2008</v>
       </c>
@@ -5003,96 +4945,94 @@
         <v>10.54037997775419</v>
       </c>
       <c r="G44">
-        <f>AVERAGE(B44,L44,S44,Z44,AG44)</f>
-        <v>17.462146408703784</v>
+        <v>17.913133830551867</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
-        <v>13.025185384409486</v>
+        <v>17.9686802945279</v>
       </c>
       <c r="I44">
-        <f t="shared" si="5"/>
-        <v>20.74908405104738</v>
+        <v>13.594603618501154</v>
       </c>
       <c r="J44">
-        <f t="shared" si="5"/>
-        <v>21.656014849491946</v>
+        <v>21.255149840777179</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
-        <v>15.019500286077852</v>
+        <v>22.019702610532477</v>
       </c>
       <c r="L44">
+        <v>15.367612102168195</v>
+      </c>
+      <c r="M44">
         <v>15.658196721311461</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>10.74751244804281</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>18.724820892128179</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>20.20126380532982</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>13.627053021716479</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>2008</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>16.590240240240259</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>12.124775073152779</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>19.478211617913288</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>20.793414355901781</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>13.88169637923427</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>2008</v>
       </c>
-      <c r="Z44">
+      <c r="AA44">
         <v>22.477595628415301</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>19.613427882945729</v>
       </c>
-      <c r="AB44">
+      <c r="AC44">
         <v>25.646370558085909</v>
       </c>
-      <c r="AC44">
+      <c r="AD44">
         <v>25.48345436613949</v>
       </c>
-      <c r="AD44">
+      <c r="AE44">
         <v>20.169509573349242</v>
       </c>
-      <c r="AF44">
+      <c r="AG44">
         <v>2008</v>
       </c>
-      <c r="AG44">
+      <c r="AH44">
         <v>18.980054644808749</v>
       </c>
-      <c r="AH44">
+      <c r="AI44">
         <v>13.825011853998969</v>
       </c>
-      <c r="AI44">
+      <c r="AJ44">
         <v>22.77883814587522</v>
       </c>
-      <c r="AJ44">
+      <c r="AK44">
         <v>23.26770338570201</v>
       </c>
-      <c r="AK44">
+      <c r="AL44">
         <v>16.87886247833508</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2009</v>
       </c>
@@ -5112,96 +5052,94 @@
         <v>11.8053302171495</v>
       </c>
       <c r="G45">
-        <f>AVERAGE(B45,L45,S45,Z45,AG45)</f>
-        <v>18.24434828268452</v>
+        <v>18.772490147876198</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:K52" si="6">AVERAGE(C45,M45,T45,AA45,AH45)</f>
-        <v>14.491390948715658</v>
+        <v>18.342811989214034</v>
       </c>
       <c r="I45">
-        <f t="shared" si="6"/>
-        <v>21.203406984971657</v>
+        <v>15.151051151316679</v>
       </c>
       <c r="J45">
-        <f t="shared" si="6"/>
-        <v>22.405743719829598</v>
+        <v>21.761333399093338</v>
       </c>
       <c r="K45">
-        <f t="shared" si="6"/>
-        <v>15.621951090066062</v>
+        <v>22.80119795466382</v>
       </c>
       <c r="L45">
+        <v>16.15127839241487</v>
+      </c>
+      <c r="M45">
         <v>16.131780821917811</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>11.852750138311579</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>18.971701328484929</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>20.823926780492709</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>13.50464188067083</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>2009</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>17.47225274725275</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>13.45805305636836</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>20.354757906865711</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>21.983624069085892</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>14.78838800412211</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>2009</v>
       </c>
-      <c r="Z45">
+      <c r="AA45">
         <v>22.882093663911849</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>19.969038087588292</v>
       </c>
-      <c r="AB45">
+      <c r="AC45">
         <v>25.836773302836111</v>
       </c>
-      <c r="AC45">
+      <c r="AD45">
         <v>26.10537171517932</v>
       </c>
-      <c r="AD45">
+      <c r="AE45">
         <v>20.644233799710321</v>
       </c>
-      <c r="AF45">
+      <c r="AG45">
         <v>2009</v>
       </c>
-      <c r="AG45">
+      <c r="AH45">
         <v>20.049175824175819</v>
       </c>
-      <c r="AH45">
+      <c r="AI45">
         <v>16.97138902059999</v>
       </c>
-      <c r="AI45">
+      <c r="AJ45">
         <v>22.745921298306332</v>
       </c>
-      <c r="AJ45">
+      <c r="AK45">
         <v>23.951293443798921</v>
       </c>
-      <c r="AK45">
+      <c r="AL45">
         <v>17.367161548677551</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2010</v>
       </c>
@@ -5221,96 +5159,94 @@
         <v>10.55331880670815</v>
       </c>
       <c r="G46">
-        <f>AVERAGE(B46,L46,S46,Z46,AG46)</f>
-        <v>18.340370194359956</v>
+        <v>18.906764112812958</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
-        <v>14.916571010541286</v>
+        <v>18.839627130344578</v>
       </c>
       <c r="I46">
-        <f t="shared" si="6"/>
-        <v>21.719029474269636</v>
+        <v>15.663900568347966</v>
       </c>
       <c r="J46">
-        <f t="shared" si="6"/>
-        <v>22.375054873783835</v>
+        <v>22.491172278747801</v>
       </c>
       <c r="K46">
-        <f t="shared" si="6"/>
-        <v>15.178362415670467</v>
+        <v>22.860873139021933</v>
       </c>
       <c r="L46">
+        <v>15.484081710129743</v>
+      </c>
+      <c r="M46">
         <v>16.07479452054795</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>11.92725277931457</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>18.63045825635697</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>20.431781812831439</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>13.95548523783337</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>2010</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>17.363031161473089</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>14.210645033959651</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>21.282375096425181</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>21.796523341418521</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>13.24598208893469</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>2010</v>
       </c>
-      <c r="Z46">
+      <c r="AA46">
         <v>23.369230769230789</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>19.880767089862101</v>
       </c>
-      <c r="AB46">
+      <c r="AC46">
         <v>26.648755750580619</v>
       </c>
-      <c r="AC46">
+      <c r="AD46">
         <v>26.5957105621215</v>
       </c>
-      <c r="AD46">
+      <c r="AE46">
         <v>21.2949915802166</v>
       </c>
-      <c r="AF46">
+      <c r="AG46">
         <v>2010</v>
       </c>
-      <c r="AG46">
+      <c r="AH46">
         <v>20.482191780821939</v>
       </c>
-      <c r="AH46">
+      <c r="AI46">
         <v>17.814126544673329</v>
       </c>
-      <c r="AI46">
+      <c r="AJ46">
         <v>24.133471662618749</v>
       </c>
-      <c r="AJ46">
+      <c r="AK46">
         <v>24.001644493954331</v>
       </c>
-      <c r="AK46">
+      <c r="AL46">
         <v>16.842034364659529</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2011</v>
       </c>
@@ -5330,96 +5266,94 @@
         <v>10.25003607398595</v>
       </c>
       <c r="G47">
-        <f>AVERAGE(B47,L47,S47,Z47,AG47)</f>
-        <v>17.463302188419867</v>
+        <v>17.917209927305652</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
-        <v>13.128330457136823</v>
+        <v>18.411987020059307</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
-        <v>20.820618120126294</v>
+        <v>13.700615147034044</v>
       </c>
       <c r="J47">
-        <f t="shared" si="6"/>
-        <v>22.037926757002072</v>
+        <v>21.414699962640409</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
-        <v>14.614903269976562</v>
+        <v>22.442974256543806</v>
       </c>
       <c r="L47">
+        <v>14.888315268889635</v>
+      </c>
+      <c r="M47">
         <v>15.64767123287672</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>10.839191697547941</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>18.44429075006985</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>20.41773675883513</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>13.521255274324281</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>2011</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>16.286980609418279</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>11.78551286555011</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>20.067388737323359</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>21.110516926015759</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>12.913692110867411</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>2011</v>
       </c>
-      <c r="Z47">
+      <c r="AA47">
         <v>22.87170329670332</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>20.10756407877625</v>
       </c>
-      <c r="AB47">
+      <c r="AC47">
         <v>25.636097286117561</v>
       </c>
-      <c r="AC47">
+      <c r="AD47">
         <v>26.314083810457841</v>
       </c>
-      <c r="AD47">
+      <c r="AE47">
         <v>20.455380343263219</v>
       </c>
-      <c r="AF47">
+      <c r="AG47">
         <v>2011</v>
       </c>
-      <c r="AG47">
+      <c r="AH47">
         <v>18.703287671232889</v>
       </c>
-      <c r="AH47">
+      <c r="AI47">
         <v>13.679045850496371</v>
       </c>
-      <c r="AI47">
+      <c r="AJ47">
         <v>22.415752435852951</v>
       </c>
-      <c r="AJ47">
+      <c r="AK47">
         <v>23.615235266238638</v>
       </c>
-      <c r="AK47">
+      <c r="AL47">
         <v>15.934152547441951</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2012</v>
       </c>
@@ -5439,96 +5373,94 @@
         <v>11.50815256602159</v>
       </c>
       <c r="G48">
-        <f>AVERAGE(B48,L48,S48,Z48,AG48)</f>
-        <v>18.230368397085606</v>
+        <v>18.798069785974498</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
-        <v>14.246292654910309</v>
+        <v>18.357639856640077</v>
       </c>
       <c r="I48">
-        <f t="shared" si="6"/>
-        <v>21.814025114626649</v>
+        <v>14.948692215073194</v>
       </c>
       <c r="J48">
-        <f t="shared" si="6"/>
-        <v>21.844216595184808</v>
+        <v>22.469882242871027</v>
       </c>
       <c r="K48">
-        <f t="shared" si="6"/>
-        <v>15.8091837311954</v>
+        <v>22.204679068005909</v>
       </c>
       <c r="L48">
+        <v>16.391041470314018</v>
+      </c>
+      <c r="M48">
         <v>15.95956284153004</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>11.436694414258771</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>19.190596601649119</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>20.402366703900391</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>13.48175277472092</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2012</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>17.054027777777758</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>13.07150569850611</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>20.535667310899111</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>21.031092575282791</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>14.43438795772682</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>2012</v>
       </c>
-      <c r="Z48">
+      <c r="AA48">
         <v>23.283879781420779</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>20.18140180306348</v>
       </c>
-      <c r="AB48">
+      <c r="AC48">
         <v>26.911385684462822</v>
       </c>
-      <c r="AC48">
+      <c r="AD48">
         <v>25.76428351967888</v>
       </c>
-      <c r="AD48">
+      <c r="AE48">
         <v>21.289732395035472</v>
       </c>
-      <c r="AF48">
+      <c r="AG48">
         <v>2012</v>
       </c>
-      <c r="AG48">
+      <c r="AH48">
         <v>20.320491803278681</v>
       </c>
-      <c r="AH48">
+      <c r="AI48">
         <v>16.428341163192261</v>
       </c>
-      <c r="AI48">
+      <c r="AJ48">
         <v>24.144129147646719</v>
       </c>
-      <c r="AJ48">
+      <c r="AK48">
         <v>23.199078644198242</v>
       </c>
-      <c r="AK48">
+      <c r="AL48">
         <v>18.3318929624722</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2013</v>
       </c>
@@ -5548,96 +5480,94 @@
         <v>10.366392962674141</v>
       </c>
       <c r="G49">
-        <f>AVERAGE(B49,L49,S49,Z49,AG49)</f>
-        <v>17.921257946735849</v>
+        <v>18.396572433419813</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
-        <v>15.001292140610113</v>
+        <v>18.597321109697155</v>
       </c>
       <c r="I49">
-        <f t="shared" si="6"/>
-        <v>21.332543158151061</v>
+        <v>15.680957691278589</v>
       </c>
       <c r="J49">
-        <f t="shared" si="6"/>
-        <v>21.763331312040819</v>
+        <v>21.93960588010188</v>
       </c>
       <c r="K49">
-        <f t="shared" si="6"/>
-        <v>14.402817214469513</v>
+        <v>22.131059882703465</v>
       </c>
       <c r="L49">
+        <v>14.690527624677323</v>
+      </c>
+      <c r="M49">
         <v>16.019999999999989</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>12.28262993793621</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>18.904292270347788</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>20.292417029390229</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>13.25197557363828</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2013</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>16.779501385041542</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>13.92690561887229</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>20.36233712853295</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>20.898693325003109</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>12.81939552127964</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>2013</v>
       </c>
-      <c r="Z49">
+      <c r="AA49">
         <v>22.816164383561659</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>20.529793353367381</v>
       </c>
-      <c r="AB49">
+      <c r="AC49">
         <v>26.00891632620289</v>
       </c>
-      <c r="AC49">
+      <c r="AD49">
         <v>25.648524820866079</v>
       </c>
-      <c r="AD49">
+      <c r="AE49">
         <v>20.085757960815599</v>
       </c>
-      <c r="AF49">
+      <c r="AG49">
         <v>2013</v>
       </c>
-      <c r="AG49">
+      <c r="AH49">
         <v>19.577747252747269</v>
       </c>
-      <c r="AH49">
+      <c r="AI49">
         <v>17.231426012924349</v>
       </c>
-      <c r="AI49">
+      <c r="AJ49">
         <v>23.34773768294118</v>
       </c>
-      <c r="AJ49">
+      <c r="AK49">
         <v>23.16262723784833</v>
       </c>
-      <c r="AK49">
+      <c r="AL49">
         <v>15.490564053939909</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -5657,96 +5587,94 @@
         <v>11.48604774959429</v>
       </c>
       <c r="G50">
-        <f>AVERAGE(B50,L50,S50,Z50,AG50)</f>
-        <v>18.202004545302486</v>
+        <v>18.902505681628107</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
-        <v>14.079584389411355</v>
+        <v>18.64953905752396</v>
       </c>
       <c r="I50">
-        <f t="shared" si="6"/>
-        <v>22.046071902836829</v>
+        <v>14.898139848047705</v>
       </c>
       <c r="J50">
-        <f t="shared" si="6"/>
-        <v>22.164318755484747</v>
+        <v>22.912523141539584</v>
       </c>
       <c r="K50">
-        <f t="shared" si="6"/>
-        <v>15.240382277006299</v>
+        <v>22.673625571993458</v>
       </c>
       <c r="L50">
+        <v>15.869086608286032</v>
+      </c>
+      <c r="M50">
         <v>15.4</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>10.805362554865949</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>18.580266948025798</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>20.127091489449899</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>12.725564951887369</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2014</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>17.178472222222229</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>12.938076729098579</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>21.088047660753102</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>21.459985481388919</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>13.90358871372224</v>
       </c>
-      <c r="Y50">
+      <c r="Z50">
         <v>2014</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
         <v>23.458791208791169</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>19.856514532060299</v>
       </c>
-      <c r="AB50">
+      <c r="AC50">
         <v>27.082515564024199</v>
       </c>
-      <c r="AC50">
+      <c r="AD50">
         <v>26.43531005240073</v>
       </c>
-      <c r="AD50">
+      <c r="AE50">
         <v>21.385714760443651</v>
       </c>
-      <c r="AF50">
+      <c r="AG50">
         <v>2014</v>
       </c>
-      <c r="AG50">
+      <c r="AH50">
         <v>20.057142857142871</v>
       </c>
-      <c r="AH50">
+      <c r="AI50">
         <v>16.081460289032488</v>
       </c>
-      <c r="AI50">
+      <c r="AJ50">
         <v>24.480744370142229</v>
       </c>
-      <c r="AJ50">
+      <c r="AK50">
         <v>23.75176768736792</v>
       </c>
-      <c r="AK50">
+      <c r="AL50">
         <v>16.700995209383951</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2015</v>
       </c>
@@ -5766,96 +5694,94 @@
         <v>11.17213095379994</v>
       </c>
       <c r="G51">
-        <f>AVERAGE(B51,L51,S51,Z51,AG51)</f>
-        <v>18.172080412353569</v>
+        <v>18.89051147434607</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
-        <v>14.398665908560778</v>
+        <v>18.896508577987088</v>
       </c>
       <c r="I51">
-        <f t="shared" si="6"/>
-        <v>21.832154636294906</v>
+        <v>15.217761934159679</v>
       </c>
       <c r="J51">
-        <f t="shared" si="6"/>
-        <v>21.942441421656934</v>
+        <v>22.748763990566363</v>
       </c>
       <c r="K51">
-        <f t="shared" si="6"/>
-        <v>15.240401413410771</v>
+        <v>22.494282506719408</v>
       </c>
       <c r="L51">
+        <v>15.85369316635073</v>
+      </c>
+      <c r="M51">
         <v>15.29835616438357</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>11.12228180616518</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>18.165717219209071</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>19.735077081407059</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>12.78723440165094</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>2015</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>16.93505586592179</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>13.16110198572021</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>20.875143380887391</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>20.683820061588641</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>13.71127627768227</v>
       </c>
-      <c r="Y51">
+      <c r="Z51">
         <v>2015</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>23.340821917808199</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>19.873961272578448</v>
       </c>
-      <c r="AB51">
+      <c r="AC51">
         <v>26.571236434769489</v>
       </c>
-      <c r="AC51">
+      <c r="AD51">
         <v>26.742775109265231</v>
       </c>
-      <c r="AD51">
+      <c r="AE51">
         <v>21.165062116961352</v>
       </c>
-      <c r="AF51">
+      <c r="AG51">
         <v>2015</v>
       </c>
-      <c r="AG51">
+      <c r="AH51">
         <v>20.282596685082869</v>
       </c>
-      <c r="AH51">
+      <c r="AI51">
         <v>16.445349558767031</v>
       </c>
-      <c r="AI51">
+      <c r="AJ51">
         <v>24.345942245825739</v>
       </c>
-      <c r="AJ51">
+      <c r="AK51">
         <v>23.719040953123571</v>
       </c>
-      <c r="AK51">
+      <c r="AL51">
         <v>17.36630331695936</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2016</v>
       </c>
@@ -5875,93 +5801,212 @@
         <v>12.05784924949783</v>
       </c>
       <c r="G52">
-        <f>AVERAGE(B52,L52,S52,Z52,AG52)</f>
-        <v>17.886363086279903</v>
+        <v>18.455904677522014</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
-        <v>13.177825659605324</v>
+        <v>18.673208075934042</v>
       </c>
       <c r="I52">
-        <f t="shared" si="6"/>
-        <v>21.119254446552688</v>
+        <v>13.780187893720488</v>
       </c>
       <c r="J52">
-        <f t="shared" si="6"/>
-        <v>21.97578786162941</v>
+        <v>21.891744659236991</v>
       </c>
       <c r="K52">
-        <f t="shared" si="6"/>
-        <v>16.039959148483604</v>
+        <v>22.416922117576416</v>
       </c>
       <c r="L52">
+        <v>16.532592320382626</v>
+      </c>
+      <c r="M52">
         <v>15.60819672131146</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>10.768376723144669</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>18.029293595815481</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>20.211250837841391</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>14.069426460887509</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2016</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>16.603287671232881</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>11.46734557761911</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>20.112913663526228</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>20.958519783278138</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>14.54468778562698</v>
       </c>
-      <c r="Y52">
+      <c r="Z52">
         <v>2016</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>23.356830601092891</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>19.53487869530306</v>
       </c>
-      <c r="AB52">
+      <c r="AC52">
         <v>26.51067292785461</v>
       </c>
-      <c r="AC52">
+      <c r="AD52">
         <v>26.481986685970291</v>
       </c>
-      <c r="AD52">
+      <c r="AE52">
         <v>21.918098501271331</v>
       </c>
-      <c r="AF52">
+      <c r="AG52">
         <v>2016</v>
       </c>
-      <c r="AG52">
+      <c r="AH52">
         <v>19.39779005524861</v>
       </c>
-      <c r="AH52">
+      <c r="AI52">
         <v>14.357641203942499</v>
       </c>
-      <c r="AI52">
+      <c r="AJ52">
         <v>23.28402134336072</v>
       </c>
-      <c r="AJ52">
+      <c r="AK52">
         <v>23.200209241243119</v>
       </c>
-      <c r="AK52">
+      <c r="AL52">
         <v>17.60973374513436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EE9540-9C3A-4BA7-AB03-B0D4854C34EF}">
+  <dimension ref="A1:AL1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1966</v>
+      </c>
+      <c r="B1">
+        <v>13.90892857142857</v>
+      </c>
+      <c r="C1">
+        <v>9.5733333333333306</v>
+      </c>
+      <c r="D1">
+        <v>16.711111111111109</v>
+      </c>
+      <c r="E1">
+        <v>17.88260869565217</v>
+      </c>
+      <c r="F1">
+        <v>11.435326086956531</v>
+      </c>
+      <c r="G1">
+        <v>17.670965019569472</v>
+      </c>
+      <c r="I1">
+        <v>14.155694444444443</v>
+      </c>
+      <c r="J1">
+        <v>20.506623931623931</v>
+      </c>
+      <c r="K1">
+        <v>20.655027173913048</v>
+      </c>
+      <c r="L1">
+        <v>15.328532608695658</v>
+      </c>
+      <c r="M1">
+        <v>15.009589041095889</v>
+      </c>
+      <c r="N1">
+        <v>10.454444444444441</v>
+      </c>
+      <c r="O1">
+        <v>17.913186813186812</v>
+      </c>
+      <c r="P1">
+        <v>19.106521739130439</v>
+      </c>
+      <c r="Q1">
+        <v>12.496739130434779</v>
+      </c>
+      <c r="S1">
+        <v>1966</v>
+      </c>
+      <c r="T1">
+        <v>15.435479452054791</v>
+      </c>
+      <c r="U1">
+        <v>11.46833333333333</v>
+      </c>
+      <c r="V1">
+        <v>18.349450549450552</v>
+      </c>
+      <c r="W1">
+        <v>18.877717391304351</v>
+      </c>
+      <c r="X1">
+        <v>12.991847826086961</v>
+      </c>
+      <c r="Z1">
+        <v>1966</v>
+      </c>
+      <c r="AA1">
+        <v>22.16630136986301</v>
+      </c>
+      <c r="AB1">
+        <v>18.957777777777778</v>
+      </c>
+      <c r="AC1">
+        <v>24.95054945054946</v>
+      </c>
+      <c r="AD1">
+        <v>24.36304347826087</v>
+      </c>
+      <c r="AE1">
+        <v>20.354347826086961</v>
+      </c>
+      <c r="AG1">
+        <v>1966</v>
+      </c>
+      <c r="AH1">
+        <v>19.173150684931521</v>
+      </c>
+      <c r="AI1">
+        <v>16.623333333333331</v>
+      </c>
+      <c r="AJ1">
+        <v>22.015384615384601</v>
+      </c>
+      <c r="AK1">
+        <v>21.49673913043479</v>
+      </c>
+      <c r="AL1">
+        <v>16.532608695652179</v>
       </c>
     </row>
   </sheetData>

--- a/my_work/data1/total.xlsx
+++ b/my_work/data1/total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TD\my_work\data1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B16AE30-66DF-4E4C-B9C3-472ABDF0D1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FDE861-531F-4419-A198-8C6088AA1B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
